--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value314.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value314.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7978814327189798</v>
+        <v>0.8075411915779114</v>
       </c>
       <c r="B1">
-        <v>0.9248615043093292</v>
+        <v>1.338351368904114</v>
       </c>
       <c r="C1">
-        <v>1.174203127198054</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.48763704376526</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>5.047450824531766</v>
+        <v>1.582441926002502</v>
       </c>
     </row>
   </sheetData>
